--- a/TrainSchdule/wwwroot/Templete/干部请假单.xlsx
+++ b/TrainSchdule/wwwroot/Templete/干部请假单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A31551-00C2-4D8F-B2D5-72B1A5AF1E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79AD33-B048-4719-8513-B2A8F43BB48C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>申请离队时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,43 +201,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$[RealName]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[CompanyName]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[VocationType]（$[VocationDescription]）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[StampLeave]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[StampReturn]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[Phone]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[HomeAddressDetail]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[VocationType]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[VocationLength]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[ByTransportation]</t>
+    <t>$[Base_RealName]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationType]（$[RequestInfo_VocationDescription]）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_StampLeave]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_StampReturn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_HomeAddressDetail]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Base_Company]$[Base_Duties]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Social_Phone]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Social_ByTransportation]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Response_SelfRankAudit]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationType]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationLength]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -307,17 +311,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,9 +531,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,66 +546,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,7 +579,25 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,459 +942,461 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="19"/>
+      <c r="E5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="27"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="B6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15"/>
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="23"/>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="25"/>
+      <c r="E19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="B20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="36"/>
+      <c r="E20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1439,6 +1404,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B8:F8"/>
@@ -1455,14 +1428,6 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
